--- a/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_47_.xlsx
+++ b/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_47_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -783,7 +1302,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -812,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="78.98988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="78.98988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="60.28988764044945"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-06-27T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1471692</v>
       </c>
@@ -1102,120 +1621,41 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>37442</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>TCKU3712139</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>XP. KOHIMA</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>2018/1719</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="d">
-        <v>2018-06-27T00:00:00</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0" t="n">
-        <v>159</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="0" t="n">
-        <v>1471692</v>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
           <t>F/BOARD DIRTY BY BADLY SCRAP DUST &amp; SCRATCHED.</t>
         </is>
       </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>39412</v>
@@ -1327,7 +1767,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>39413</v>
@@ -1439,7 +1879,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>39414</v>
@@ -1550,120 +1990,41 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>39414</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>IAAU1743330</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>2703/2018</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="0" t="n">
-        <v>1479846</v>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y11" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST &amp; ODOUR </t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>39415</v>
@@ -1774,120 +2135,41 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>39415</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>IAAU1702860</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t>2703/2018</t>
-        </is>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M13" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="0" t="n">
-        <v>1479848</v>
-      </c>
-      <c r="W13" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y13" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>39416</v>
@@ -1998,120 +2280,41 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>39416</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>CAIU9708266</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t>2703/2018</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="0" t="n">
-        <v>1479849</v>
-      </c>
-      <c r="W15" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>39417</v>
@@ -2222,120 +2425,41 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>39417</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>TCNU9004548</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>2703/2018</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="0" t="n">
-        <v>1479850</v>
-      </c>
-      <c r="W17" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y17" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>39418</v>
@@ -2446,120 +2570,41 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>39418</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>IAAU1683210</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>2703/2018</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M19" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="0" t="n">
-        <v>1479852</v>
-      </c>
-      <c r="W19" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>39419</v>
@@ -2670,120 +2715,41 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>39419</v>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>IAAU1732150</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K21" s="0" t="inlineStr">
-        <is>
-          <t>2703/2018</t>
-        </is>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="N21" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="0"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="0" t="n">
-        <v>1479853</v>
-      </c>
-      <c r="W21" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y21" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
         </is>
       </c>
-      <c r="Z21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>39420</v>
@@ -2895,7 +2861,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>37003</v>
@@ -3006,232 +2972,74 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>37003</v>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>FCIU8848750</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J24" s="0" t="inlineStr">
-        <is>
-          <t>M.TARABA-18012</t>
-        </is>
-      </c>
-      <c r="K24" s="0" t="inlineStr">
-        <is>
-          <t>2018/1861</t>
-        </is>
-      </c>
-      <c r="L24" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="d">
-        <v>2018-06-20T00:00:00</v>
-      </c>
-      <c r="N24" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
       <c r="O24" s="0"/>
-      <c r="P24" s="0" t="n">
-        <v>166</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="0" t="n">
-        <v>1442298</v>
-      </c>
-      <c r="W24" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y24" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD SLIGHTLY UP WARD.</t>
         </is>
       </c>
-      <c r="Z24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>37003</v>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>FCIU8848750</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J25" s="0" t="inlineStr">
-        <is>
-          <t>M.TARABA-18012</t>
-        </is>
-      </c>
-      <c r="K25" s="0" t="inlineStr">
-        <is>
-          <t>2018/1861</t>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="d">
-        <v>2018-06-20T00:00:00</v>
-      </c>
-      <c r="N25" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
       <c r="O25" s="0"/>
-      <c r="P25" s="0" t="n">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="0" t="n">
-        <v>1442298</v>
-      </c>
-      <c r="W25" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY DUST.</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>37040</v>
@@ -3343,7 +3151,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>39636</v>
@@ -3454,232 +3262,74 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>39636</v>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>IAAU1712004</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G28" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H28" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I28" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J28" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K28" s="0" t="inlineStr">
-        <is>
-          <t>2703/2018</t>
-        </is>
-      </c>
-      <c r="L28" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M28" s="4" t="d">
-        <v>2018-09-16T00:00:00</v>
-      </c>
-      <c r="N28" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="0"/>
       <c r="O28" s="0"/>
-      <c r="P28" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="0" t="n">
-        <v>1480253</v>
-      </c>
-      <c r="W28" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
       <c r="X28" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y28" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
         </is>
       </c>
-      <c r="Z28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>39636</v>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>IAAU1712004</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H29" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I29" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J29" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K29" s="0" t="inlineStr">
-        <is>
-          <t>2703/2018</t>
-        </is>
-      </c>
-      <c r="L29" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="d">
-        <v>2018-09-16T00:00:00</v>
-      </c>
-      <c r="N29" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
       <c r="O29" s="0"/>
-      <c r="P29" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="0" t="n">
-        <v>1480253</v>
-      </c>
-      <c r="W29" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y29" s="0" t="inlineStr">
-        <is>
           <t>F/B STEEL PLATE FITTING 12'X08' &amp; LOOSED .</t>
         </is>
       </c>
-      <c r="Z29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>39637</v>
@@ -3790,120 +3440,41 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>39637</v>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>IAAU1723293</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K31" s="0" t="inlineStr">
-        <is>
-          <t>2703/2018</t>
-        </is>
-      </c>
-      <c r="L31" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M31" s="4" t="d">
-        <v>2018-09-16T00:00:00</v>
-      </c>
-      <c r="N31" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
       <c r="O31" s="0"/>
-      <c r="P31" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="0" t="n">
-        <v>1480254</v>
-      </c>
-      <c r="W31" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y31" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
         </is>
       </c>
-      <c r="Z31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>39827</v>
@@ -4014,116 +3585,37 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>39827</v>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>IAAU1690348</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
-        <is>
-          <t>ICB</t>
-        </is>
-      </c>
-      <c r="H33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J33" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K33" s="0" t="inlineStr">
-        <is>
-          <t>2703/2018</t>
-        </is>
-      </c>
-      <c r="L33" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M33" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="N33" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="0"/>
       <c r="O33" s="0"/>
-      <c r="P33" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="0" t="n">
-        <v>1480608</v>
-      </c>
-      <c r="W33" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
       <c r="X33" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y33" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR</t>
         </is>
       </c>
-      <c r="Z33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_47_.xlsx
+++ b/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_47_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="251.68988764044948" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="78.98988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="60.28988764044945"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,37 +1621,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY BADLY SCRAP DUST &amp; SCRATCHED.</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/BOARD DIRTY BY BADLY SCRAP DUST &amp; SCRATCHED.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -1990,37 +1969,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST &amp; ODOUR </t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST &amp; ODOUR ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
@@ -2135,37 +2093,16 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
-        </is>
-      </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
@@ -2280,37 +2217,16 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -2425,37 +2341,16 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
-        </is>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -2570,37 +2465,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
-        </is>
-      </c>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
@@ -2715,37 +2589,16 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
-        </is>
-      </c>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
@@ -2972,70 +2825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD SLIGHTLY UP WARD.</t>
-        </is>
-      </c>
-      <c r="Y24" s="0"/>
-      <c r="Z24" s="0"/>
-      <c r="AA24" s="0"/>
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD SLIGHTLY UP WARD.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
@@ -3262,70 +3073,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
-        </is>
-      </c>
-      <c r="Y28" s="0"/>
-      <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0" t="inlineStr">
-        <is>
-          <t>F/B STEEL PLATE FITTING 12'X08' &amp; LOOSED .</t>
-        </is>
-      </c>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
-      <c r="AA29" s="0"/>
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B STEEL PLATE FITTING 12'X08' &amp; LOOSED .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
@@ -3440,37 +3209,16 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
-      <c r="P31" s="0"/>
-      <c r="Q31" s="0"/>
-      <c r="R31" s="0"/>
-      <c r="S31" s="0"/>
-      <c r="T31" s="0"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="0"/>
-      <c r="W31" s="0"/>
-      <c r="X31" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
-        </is>
-      </c>
-      <c r="Y31" s="0"/>
-      <c r="Z31" s="0"/>
-      <c r="AA31" s="0"/>
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
@@ -3585,37 +3333,16 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0"/>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-      <c r="T33" s="0"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR</t>
-        </is>
-      </c>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR", "", "", ""]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_47_.xlsx
+++ b/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_47_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="251.68988764044948" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1332,7 +1332,7 @@
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="60.28988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="78.98988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/BOARD DIRTY BY BADLY SCRAP DUST &amp; SCRATCHED.", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD DIRTY BY BADLY SCRAP DUST &amp; SCRATCHED.</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1974,9 +2020,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST &amp; ODOUR ", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST &amp; ODOUR </t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2098,9 +2190,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2222,9 +2360,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2346,9 +2530,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2470,9 +2700,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2594,9 +2870,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X21" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y21" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
+        </is>
+      </c>
+      <c r="Z21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB21" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2830,9 +3152,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD SLIGHTLY UP WARD.", "", "", ""]</t>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y24" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD SLIGHTLY UP WARD.</t>
+        </is>
+      </c>
+      <c r="Z24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB24" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2842,9 +3210,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y25" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3078,9 +3492,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X28" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y28" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
+        </is>
+      </c>
+      <c r="Z28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB28" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3090,9 +3550,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B STEEL PLATE FITTING 12'X08' &amp; LOOSED .", "", "", ""]</t>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X29" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y29" s="0" t="inlineStr">
+        <is>
+          <t>F/B STEEL PLATE FITTING 12'X08' &amp; LOOSED .</t>
+        </is>
+      </c>
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB29" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3214,9 +3720,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .", "", "", ""]</t>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X31" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y31" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD,DROP OIL SPOT,TYER MARK,SAND ,SATPLE FIBER DUST .</t>
+        </is>
+      </c>
+      <c r="Z31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB31" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3338,9 +3890,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR", "", "", ""]</t>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X33" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y33" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY MUD+SAND,TYER MARK STAPLE FIBER DUST &amp; ODOUR</t>
+        </is>
+      </c>
+      <c r="Z33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB33" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_47_.xlsx
+++ b/reports/_ICB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_47_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:15</t>
+          <t>Total number of containers:15</t>
         </is>
       </c>
     </row>
